--- a/team_specific_matrix/Arkansas St._B.xlsx
+++ b/team_specific_matrix/Arkansas St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1788617886178862</v>
+        <v>0.1780415430267062</v>
       </c>
       <c r="C2">
-        <v>0.573170731707317</v>
+        <v>0.5905044510385756</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02032520325203252</v>
+        <v>0.01780415430267062</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1504065040650407</v>
+        <v>0.142433234421365</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07723577235772358</v>
+        <v>0.0712166172106825</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="C3">
-        <v>0.007042253521126761</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02816901408450704</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8309859154929577</v>
+        <v>0.8109452736318408</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1338028169014084</v>
+        <v>0.1442786069651741</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.025</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.875</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1</v>
+        <v>0.1228070175438596</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07042253521126761</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02816901408450704</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="E6">
-        <v>0.007042253521126761</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="F6">
-        <v>0.04225352112676056</v>
+        <v>0.04371584699453552</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2042253521126761</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02816901408450704</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2605633802816901</v>
+        <v>0.2513661202185792</v>
       </c>
       <c r="R6">
-        <v>0.07042253521126761</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="S6">
-        <v>0.2887323943661972</v>
+        <v>0.3278688524590164</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09677419354838709</v>
+        <v>0.109452736318408</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03225806451612903</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="E7">
-        <v>0.006451612903225806</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="F7">
-        <v>0.07096774193548387</v>
+        <v>0.06965174129353234</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1741935483870968</v>
+        <v>0.154228855721393</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01290322580645161</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1935483870967742</v>
+        <v>0.1990049751243781</v>
       </c>
       <c r="R7">
-        <v>0.09032258064516129</v>
+        <v>0.0845771144278607</v>
       </c>
       <c r="S7">
-        <v>0.3225806451612903</v>
+        <v>0.3283582089552239</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1012269938650307</v>
+        <v>0.1129411764705882</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0245398773006135</v>
+        <v>0.03058823529411765</v>
       </c>
       <c r="E8">
-        <v>0.003067484662576687</v>
+        <v>0.002352941176470588</v>
       </c>
       <c r="F8">
-        <v>0.04294478527607362</v>
+        <v>0.04</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1165644171779141</v>
+        <v>0.1105882352941177</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0245398773006135</v>
+        <v>0.02588235294117647</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2638036809815951</v>
+        <v>0.2517647058823529</v>
       </c>
       <c r="R8">
-        <v>0.03680981595092025</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="S8">
-        <v>0.3865030674846626</v>
+        <v>0.3788235294117647</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06896551724137931</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02955665024630542</v>
+        <v>0.02651515151515152</v>
       </c>
       <c r="E9">
-        <v>0.004926108374384237</v>
+        <v>0.003787878787878788</v>
       </c>
       <c r="F9">
-        <v>0.02463054187192118</v>
+        <v>0.02651515151515152</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1379310344827586</v>
+        <v>0.1401515151515151</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01477832512315271</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2315270935960591</v>
+        <v>0.2348484848484849</v>
       </c>
       <c r="R9">
-        <v>0.0541871921182266</v>
+        <v>0.04924242424242424</v>
       </c>
       <c r="S9">
-        <v>0.4334975369458128</v>
+        <v>0.4053030303030303</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1358921161825726</v>
+        <v>0.1391585760517799</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02074688796680498</v>
+        <v>0.02184466019417476</v>
       </c>
       <c r="E10">
-        <v>0.003112033195020747</v>
+        <v>0.002427184466019417</v>
       </c>
       <c r="F10">
-        <v>0.07365145228215768</v>
+        <v>0.07605177993527508</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1224066390041494</v>
+        <v>0.1124595469255663</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.007261410788381743</v>
+        <v>0.007281553398058253</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2074688796680498</v>
+        <v>0.2192556634304207</v>
       </c>
       <c r="R10">
-        <v>0.07676348547717843</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="S10">
-        <v>0.3526970954356847</v>
+        <v>0.348705501618123</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1035856573705179</v>
+        <v>0.1211180124223603</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09163346613545817</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K11">
-        <v>0.1673306772908366</v>
+        <v>0.1832298136645963</v>
       </c>
       <c r="L11">
-        <v>0.6055776892430279</v>
+        <v>0.5838509316770186</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03187250996015936</v>
+        <v>0.02484472049689441</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6878980891719745</v>
+        <v>0.6979166666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2547770700636943</v>
+        <v>0.2447916666666667</v>
       </c>
       <c r="K12">
-        <v>0.006369426751592357</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="L12">
-        <v>0.02547770700636943</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02547770700636943</v>
+        <v>0.02604166666666667</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6571428571428571</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05714285714285714</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.00684931506849315</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1164383561643836</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="I15">
-        <v>0.08904109589041095</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J15">
-        <v>0.3904109589041096</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="K15">
-        <v>0.1164383561643836</v>
+        <v>0.109375</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00684931506849315</v>
+        <v>0.015625</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03424657534246575</v>
+        <v>0.03645833333333334</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2397260273972603</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01015228426395939</v>
+        <v>0.007604562737642586</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1979695431472081</v>
+        <v>0.2015209125475285</v>
       </c>
       <c r="I16">
-        <v>0.08629441624365482</v>
+        <v>0.09885931558935361</v>
       </c>
       <c r="J16">
-        <v>0.3350253807106599</v>
+        <v>0.3307984790874525</v>
       </c>
       <c r="K16">
-        <v>0.1269035532994924</v>
+        <v>0.1216730038022814</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02030456852791878</v>
+        <v>0.02281368821292776</v>
       </c>
       <c r="N16">
-        <v>0.01015228426395939</v>
+        <v>0.007604562737642586</v>
       </c>
       <c r="O16">
-        <v>0.05583756345177665</v>
+        <v>0.05703422053231939</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1573604060913706</v>
+        <v>0.1520912547528517</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.005037783375314861</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.146095717884131</v>
+        <v>0.1423076923076923</v>
       </c>
       <c r="I17">
-        <v>0.1183879093198992</v>
+        <v>0.1115384615384615</v>
       </c>
       <c r="J17">
-        <v>0.4055415617128463</v>
+        <v>0.425</v>
       </c>
       <c r="K17">
-        <v>0.1183879093198992</v>
+        <v>0.1192307692307692</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01763224181360202</v>
+        <v>0.01730769230769231</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04282115869017632</v>
+        <v>0.04038461538461539</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.146095717884131</v>
+        <v>0.1365384615384615</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01680672268907563</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1848739495798319</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="I18">
-        <v>0.1260504201680672</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="J18">
-        <v>0.3697478991596639</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="K18">
-        <v>0.1008403361344538</v>
+        <v>0.08</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01680672268907563</v>
+        <v>0.02</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06722689075630252</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1176470588235294</v>
+        <v>0.1266666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01033057851239669</v>
+        <v>0.009700889248181084</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1983471074380165</v>
+        <v>0.2029102667744543</v>
       </c>
       <c r="I19">
-        <v>0.1136363636363636</v>
+        <v>0.1156022635408246</v>
       </c>
       <c r="J19">
-        <v>0.3378099173553719</v>
+        <v>0.3459983831851253</v>
       </c>
       <c r="K19">
-        <v>0.1053719008264463</v>
+        <v>0.1050929668552951</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02582644628099174</v>
+        <v>0.02425222312045271</v>
       </c>
       <c r="N19">
-        <v>0.002066115702479339</v>
+        <v>0.001616814874696847</v>
       </c>
       <c r="O19">
-        <v>0.05991735537190083</v>
+        <v>0.05901374292643492</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1466942148760331</v>
+        <v>0.1358124494745352</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Arkansas St._B.xlsx
+++ b/team_specific_matrix/Arkansas St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1780415430267062</v>
+        <v>0.174785100286533</v>
       </c>
       <c r="C2">
-        <v>0.5905044510385756</v>
+        <v>0.5959885386819485</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01780415430267062</v>
+        <v>0.0171919770773639</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.142433234421365</v>
+        <v>0.1404011461318052</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0712166172106825</v>
+        <v>0.07163323782234957</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004975124378109453</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="C3">
-        <v>0.004975124378109453</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03482587064676617</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8109452736318408</v>
+        <v>0.8142857142857143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1442786069651741</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07017543859649122</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8070175438596491</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1228070175438596</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06010928961748634</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03278688524590164</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="E6">
-        <v>0.00546448087431694</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="F6">
-        <v>0.04371584699453552</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.180327868852459</v>
+        <v>0.2030456852791878</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03278688524590164</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2513661202185792</v>
+        <v>0.2487309644670051</v>
       </c>
       <c r="R6">
-        <v>0.06557377049180328</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="S6">
-        <v>0.3278688524590164</v>
+        <v>0.3096446700507614</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.109452736318408</v>
+        <v>0.1121951219512195</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03482587064676617</v>
+        <v>0.03414634146341464</v>
       </c>
       <c r="E7">
-        <v>0.004975124378109453</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="F7">
-        <v>0.06965174129353234</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.154228855721393</v>
+        <v>0.1512195121951219</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01492537313432836</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1990049751243781</v>
+        <v>0.2</v>
       </c>
       <c r="R7">
-        <v>0.0845771144278607</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="S7">
-        <v>0.3283582089552239</v>
+        <v>0.3317073170731707</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1129411764705882</v>
+        <v>0.1084598698481562</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03058823529411765</v>
+        <v>0.03036876355748373</v>
       </c>
       <c r="E8">
-        <v>0.002352941176470588</v>
+        <v>0.002169197396963124</v>
       </c>
       <c r="F8">
-        <v>0.04</v>
+        <v>0.03904555314533623</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1105882352941177</v>
+        <v>0.1127982646420824</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02588235294117647</v>
+        <v>0.02386117136659436</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2517647058823529</v>
+        <v>0.2516268980477224</v>
       </c>
       <c r="R8">
-        <v>0.04705882352941176</v>
+        <v>0.0455531453362256</v>
       </c>
       <c r="S8">
-        <v>0.3788235294117647</v>
+        <v>0.386117136659436</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09090909090909091</v>
+        <v>0.09420289855072464</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02651515151515152</v>
+        <v>0.02536231884057971</v>
       </c>
       <c r="E9">
-        <v>0.003787878787878788</v>
+        <v>0.003623188405797101</v>
       </c>
       <c r="F9">
-        <v>0.02651515151515152</v>
+        <v>0.02536231884057971</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1401515151515151</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02272727272727273</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2348484848484849</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="R9">
-        <v>0.04924242424242424</v>
+        <v>0.05072463768115942</v>
       </c>
       <c r="S9">
-        <v>0.4053030303030303</v>
+        <v>0.4094202898550725</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1391585760517799</v>
+        <v>0.1328358208955224</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02184466019417476</v>
+        <v>0.02164179104477612</v>
       </c>
       <c r="E10">
-        <v>0.002427184466019417</v>
+        <v>0.002238805970149254</v>
       </c>
       <c r="F10">
-        <v>0.07605177993527508</v>
+        <v>0.07388059701492537</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1124595469255663</v>
+        <v>0.1111940298507463</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.007281553398058253</v>
+        <v>0.006716417910447761</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2192556634304207</v>
+        <v>0.2223880597014925</v>
       </c>
       <c r="R10">
-        <v>0.07281553398058252</v>
+        <v>0.07164179104477612</v>
       </c>
       <c r="S10">
-        <v>0.348705501618123</v>
+        <v>0.3574626865671642</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1211180124223603</v>
+        <v>0.1186943620178042</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08695652173913043</v>
+        <v>0.09495548961424333</v>
       </c>
       <c r="K11">
-        <v>0.1832298136645963</v>
+        <v>0.1810089020771513</v>
       </c>
       <c r="L11">
-        <v>0.5838509316770186</v>
+        <v>0.5816023738872403</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02484472049689441</v>
+        <v>0.02373887240356083</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6979166666666666</v>
+        <v>0.68</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2447916666666667</v>
+        <v>0.26</v>
       </c>
       <c r="K12">
-        <v>0.005208333333333333</v>
+        <v>0.005</v>
       </c>
       <c r="L12">
-        <v>0.02604166666666667</v>
+        <v>0.025</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02604166666666667</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6382978723404256</v>
+        <v>0.62</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3191489361702128</v>
+        <v>0.34</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0425531914893617</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005208333333333333</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1145833333333333</v>
+        <v>0.1138613861386139</v>
       </c>
       <c r="I15">
-        <v>0.08333333333333333</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="J15">
-        <v>0.3541666666666667</v>
+        <v>0.3663366336633663</v>
       </c>
       <c r="K15">
-        <v>0.109375</v>
+        <v>0.103960396039604</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.015625</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03645833333333334</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.28125</v>
+        <v>0.2722772277227723</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007604562737642586</v>
+        <v>0.007326007326007326</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2015209125475285</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="I16">
-        <v>0.09885931558935361</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="J16">
-        <v>0.3307984790874525</v>
+        <v>0.3296703296703297</v>
       </c>
       <c r="K16">
-        <v>0.1216730038022814</v>
+        <v>0.1245421245421245</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02281368821292776</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="N16">
-        <v>0.007604562737642586</v>
+        <v>0.007326007326007326</v>
       </c>
       <c r="O16">
-        <v>0.05703422053231939</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1520912547528517</v>
+        <v>0.1575091575091575</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007692307692307693</v>
+        <v>0.0071301247771836</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1423076923076923</v>
+        <v>0.1443850267379679</v>
       </c>
       <c r="I17">
-        <v>0.1115384615384615</v>
+        <v>0.1087344028520499</v>
       </c>
       <c r="J17">
-        <v>0.425</v>
+        <v>0.427807486631016</v>
       </c>
       <c r="K17">
-        <v>0.1192307692307692</v>
+        <v>0.1140819964349376</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01730769230769231</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04038461538461539</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1365384615384615</v>
+        <v>0.1390374331550802</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01333333333333333</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1866666666666667</v>
+        <v>0.1801242236024845</v>
       </c>
       <c r="I18">
-        <v>0.1333333333333333</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="J18">
-        <v>0.3666666666666666</v>
+        <v>0.3975155279503105</v>
       </c>
       <c r="K18">
-        <v>0.08</v>
+        <v>0.08074534161490683</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07333333333333333</v>
+        <v>0.06832298136645963</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1266666666666667</v>
+        <v>0.1180124223602484</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009700889248181084</v>
+        <v>0.01196709050112191</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2029102667744543</v>
+        <v>0.206432311144353</v>
       </c>
       <c r="I19">
-        <v>0.1156022635408246</v>
+        <v>0.112191473448018</v>
       </c>
       <c r="J19">
-        <v>0.3459983831851253</v>
+        <v>0.3455497382198953</v>
       </c>
       <c r="K19">
-        <v>0.1050929668552951</v>
+        <v>0.1032161555721765</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02425222312045271</v>
+        <v>0.02318623784592371</v>
       </c>
       <c r="N19">
-        <v>0.001616814874696847</v>
+        <v>0.001495886312640239</v>
       </c>
       <c r="O19">
-        <v>0.05901374292643492</v>
+        <v>0.05908750934928945</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1358124494745352</v>
+        <v>0.1368735976065819</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Arkansas St._B.xlsx
+++ b/team_specific_matrix/Arkansas St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.174785100286533</v>
+        <v>0.1759776536312849</v>
       </c>
       <c r="C2">
-        <v>0.5959885386819485</v>
+        <v>0.5921787709497207</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0171919770773639</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1404011461318052</v>
+        <v>0.1424581005586592</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07163323782234957</v>
+        <v>0.07262569832402235</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004761904761904762</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="C3">
-        <v>0.004761904761904762</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03333333333333333</v>
+        <v>0.03271028037383177</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8142857142857143</v>
+        <v>0.8130841121495327</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1428571428571428</v>
+        <v>0.1448598130841121</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08333333333333333</v>
+        <v>0.078125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7833333333333333</v>
+        <v>0.78125</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1333333333333333</v>
+        <v>0.140625</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05583756345177665</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03045685279187817</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="E6">
-        <v>0.005076142131979695</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="F6">
-        <v>0.05076142131979695</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2030456852791878</v>
+        <v>0.2048780487804878</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03045685279187817</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2487309644670051</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="R6">
-        <v>0.06598984771573604</v>
+        <v>0.06341463414634146</v>
       </c>
       <c r="S6">
-        <v>0.3096446700507614</v>
+        <v>0.3073170731707317</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1121951219512195</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03414634146341464</v>
+        <v>0.0330188679245283</v>
       </c>
       <c r="E7">
-        <v>0.004878048780487805</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="F7">
-        <v>0.06829268292682927</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1512195121951219</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01463414634146342</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0.2028301886792453</v>
       </c>
       <c r="R7">
-        <v>0.08292682926829269</v>
+        <v>0.08018867924528301</v>
       </c>
       <c r="S7">
-        <v>0.3317073170731707</v>
+        <v>0.330188679245283</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1084598698481562</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03036876355748373</v>
+        <v>0.02953586497890295</v>
       </c>
       <c r="E8">
-        <v>0.002169197396963124</v>
+        <v>0.002109704641350211</v>
       </c>
       <c r="F8">
-        <v>0.03904555314533623</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1127982646420824</v>
+        <v>0.1118143459915612</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02386117136659436</v>
+        <v>0.02320675105485232</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2516268980477224</v>
+        <v>0.2510548523206751</v>
       </c>
       <c r="R8">
-        <v>0.0455531453362256</v>
+        <v>0.04852320675105485</v>
       </c>
       <c r="S8">
-        <v>0.386117136659436</v>
+        <v>0.3881856540084388</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09420289855072464</v>
+        <v>0.09642857142857143</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02536231884057971</v>
+        <v>0.025</v>
       </c>
       <c r="E9">
-        <v>0.003623188405797101</v>
+        <v>0.003571428571428571</v>
       </c>
       <c r="F9">
-        <v>0.02536231884057971</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1413043478260869</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02173913043478261</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2282608695652174</v>
+        <v>0.225</v>
       </c>
       <c r="R9">
-        <v>0.05072463768115942</v>
+        <v>0.05</v>
       </c>
       <c r="S9">
-        <v>0.4094202898550725</v>
+        <v>0.4071428571428571</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1328358208955224</v>
+        <v>0.1298421807747489</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02164179104477612</v>
+        <v>0.02223816355810617</v>
       </c>
       <c r="E10">
-        <v>0.002238805970149254</v>
+        <v>0.002869440459110474</v>
       </c>
       <c r="F10">
-        <v>0.07388059701492537</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1111940298507463</v>
+        <v>0.1104734576757532</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.006716417910447761</v>
+        <v>0.007173601147776184</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2223880597014925</v>
+        <v>0.2209469153515065</v>
       </c>
       <c r="R10">
-        <v>0.07164179104477612</v>
+        <v>0.07101865136298421</v>
       </c>
       <c r="S10">
-        <v>0.3574626865671642</v>
+        <v>0.3622668579626973</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1186943620178042</v>
+        <v>0.1181556195965418</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09495548961424333</v>
+        <v>0.09798270893371758</v>
       </c>
       <c r="K11">
-        <v>0.1810089020771513</v>
+        <v>0.1815561959654179</v>
       </c>
       <c r="L11">
-        <v>0.5816023738872403</v>
+        <v>0.579250720461095</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02373887240356083</v>
+        <v>0.02305475504322766</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.68</v>
+        <v>0.6796116504854369</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.26</v>
+        <v>0.2572815533980582</v>
       </c>
       <c r="K12">
-        <v>0.005</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="L12">
-        <v>0.025</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03</v>
+        <v>0.02912621359223301</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.62</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.34</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.004950495049504951</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1138613861386139</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="I15">
-        <v>0.08415841584158416</v>
+        <v>0.0825242718446602</v>
       </c>
       <c r="J15">
-        <v>0.3663366336633663</v>
+        <v>0.3689320388349515</v>
       </c>
       <c r="K15">
-        <v>0.103960396039604</v>
+        <v>0.1019417475728155</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01485148514851485</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0396039603960396</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2722772277227723</v>
+        <v>0.2766990291262136</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007326007326007326</v>
+        <v>0.007117437722419928</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1978021978021978</v>
+        <v>0.1921708185053381</v>
       </c>
       <c r="I16">
-        <v>0.0989010989010989</v>
+        <v>0.09608540925266904</v>
       </c>
       <c r="J16">
-        <v>0.3296703296703297</v>
+        <v>0.3309608540925267</v>
       </c>
       <c r="K16">
-        <v>0.1245421245421245</v>
+        <v>0.1316725978647687</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02197802197802198</v>
+        <v>0.02135231316725979</v>
       </c>
       <c r="N16">
-        <v>0.007326007326007326</v>
+        <v>0.007117437722419928</v>
       </c>
       <c r="O16">
-        <v>0.05494505494505494</v>
+        <v>0.05338078291814947</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1575091575091575</v>
+        <v>0.1601423487544484</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0071301247771836</v>
+        <v>0.006932409012131715</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1443850267379679</v>
+        <v>0.145580589254766</v>
       </c>
       <c r="I17">
-        <v>0.1087344028520499</v>
+        <v>0.1074523396880416</v>
       </c>
       <c r="J17">
-        <v>0.427807486631016</v>
+        <v>0.4246100519930676</v>
       </c>
       <c r="K17">
-        <v>0.1140819964349376</v>
+        <v>0.1143847487001733</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0196078431372549</v>
+        <v>0.01906412478336222</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0392156862745098</v>
+        <v>0.03812824956672443</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1390374331550802</v>
+        <v>0.1438474870017331</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0124223602484472</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1801242236024845</v>
+        <v>0.1867469879518072</v>
       </c>
       <c r="I18">
-        <v>0.124223602484472</v>
+        <v>0.1265060240963855</v>
       </c>
       <c r="J18">
-        <v>0.3975155279503105</v>
+        <v>0.3915662650602409</v>
       </c>
       <c r="K18">
-        <v>0.08074534161490683</v>
+        <v>0.0783132530120482</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01863354037267081</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06832298136645963</v>
+        <v>0.06626506024096386</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1180124223602484</v>
+        <v>0.1204819277108434</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01196709050112191</v>
+        <v>0.01289398280802292</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.206432311144353</v>
+        <v>0.2041547277936963</v>
       </c>
       <c r="I19">
-        <v>0.112191473448018</v>
+        <v>0.1088825214899714</v>
       </c>
       <c r="J19">
-        <v>0.3455497382198953</v>
+        <v>0.3524355300859599</v>
       </c>
       <c r="K19">
-        <v>0.1032161555721765</v>
+        <v>0.1002865329512894</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02318623784592371</v>
+        <v>0.02363896848137536</v>
       </c>
       <c r="N19">
-        <v>0.001495886312640239</v>
+        <v>0.001432664756446991</v>
       </c>
       <c r="O19">
-        <v>0.05908750934928945</v>
+        <v>0.05802292263610315</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1368735976065819</v>
+        <v>0.1382521489971347</v>
       </c>
     </row>
   </sheetData>
